--- a/2023/data/ITS/4_taxonomy_ITS_real/Verger_2023_1.xlsx
+++ b/2023/data/ITS/4_taxonomy_ITS_real/Verger_2023_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexisroy/Documents/1_Université/Stages/Labo_ILL/pratique/data/16s_subset/4_taxonomy_IP34/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexisroy/Documents/1_Université/Stages/Labo_ILL/orchard_phyllosphere/2023/data/ITS/4_taxonomy_ITS_real/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE29E8E-E8A0-CA4D-B616-F941C81B0F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A0ADF-30ED-5443-B369-1D230B3662E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" activeTab="9" xr2:uid="{E959B250-F3FE-4A45-AFFD-225FA325CE67}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" activeTab="6" xr2:uid="{E959B250-F3FE-4A45-AFFD-225FA325CE67}"/>
   </bookViews>
   <sheets>
     <sheet name="Vergers" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -9159,7 +9159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9501B05C-77D7-4890-97CF-4ADBC756F1E2}">
   <dimension ref="A2:J366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
@@ -32197,7 +32197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A216CC-5091-47FB-85FE-12E0738566CE}">
   <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
       <selection activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
